--- a/Excel/MTO List For 64730-002.xlsx
+++ b/Excel/MTO List For 64730-002.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Python\NanTong_YNKS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD47B257-83A2-4E8C-820D-B9E6CC74D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BCDBA6-663B-47F3-9F9B-441670317D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-13530" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="326">
   <si>
     <t>Stena W0269</t>
   </si>
@@ -86,10 +96,6 @@
     <t>N2SF867</t>
   </si>
   <si>
-    <t>CREW  MESS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>F30BWAL</t>
   </si>
   <si>
@@ -972,9 +978,6 @@
   </si>
   <si>
     <t>L30BMB</t>
-  </si>
-  <si>
-    <t>Office</t>
   </si>
   <si>
     <t>L30NTA</t>
@@ -1406,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P205"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1428,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2" s="1">
         <v>64730</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1484,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1496,25 +1499,25 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="K8" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -1543,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -1557,7 +1560,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -1572,16 +1575,16 @@
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1610,16 +1613,16 @@
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
@@ -1648,16 +1651,16 @@
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>24</v>
@@ -1686,16 +1689,16 @@
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
@@ -1724,16 +1727,16 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>7</v>
@@ -1762,16 +1765,16 @@
         <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1800,16 +1803,16 @@
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1838,16 +1841,16 @@
         <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -1861,7 +1864,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -1876,16 +1879,16 @@
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1914,16 +1917,16 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1952,16 +1955,16 @@
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -1990,16 +1993,16 @@
         <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -2013,7 +2016,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -2028,16 +2031,16 @@
         <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -2066,16 +2069,16 @@
         <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -2104,16 +2107,16 @@
         <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -2142,16 +2145,16 @@
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2180,16 +2183,16 @@
         <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -2218,16 +2221,16 @@
         <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -2256,16 +2259,16 @@
         <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -2294,16 +2297,16 @@
         <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="1">
         <v>1</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -2332,16 +2335,16 @@
         <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -2355,7 +2358,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -2370,16 +2373,16 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -2408,16 +2411,16 @@
         <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -2431,7 +2434,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>26</v>
@@ -2446,16 +2449,16 @@
         <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -2484,16 +2487,16 @@
         <v>25</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -2522,16 +2525,16 @@
         <v>25</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -2560,16 +2563,16 @@
         <v>25</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2598,16 +2601,16 @@
         <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -2636,16 +2639,16 @@
         <v>25</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -2659,7 +2662,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2674,16 +2677,16 @@
         <v>25</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -2697,7 +2700,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2712,16 +2715,16 @@
         <v>25</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -2735,7 +2738,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -2750,16 +2753,16 @@
         <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -2773,7 +2776,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -2788,16 +2791,16 @@
         <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -2811,7 +2814,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -2826,16 +2829,16 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
@@ -2849,7 +2852,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -2864,16 +2867,16 @@
         <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -2887,7 +2890,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2902,16 +2905,16 @@
         <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -2925,7 +2928,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -2946,10 +2949,10 @@
         <v>17</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -2963,7 +2966,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -2978,16 +2981,16 @@
         <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3016,16 +3019,16 @@
         <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
@@ -3054,16 +3057,16 @@
         <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -3077,7 +3080,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3092,16 +3095,16 @@
         <v>25</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -3115,7 +3118,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3130,16 +3133,16 @@
         <v>25</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -3153,7 +3156,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1">
         <v>19</v>
@@ -3168,16 +3171,16 @@
         <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -3191,7 +3194,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -3206,16 +3209,16 @@
         <v>25</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -3229,7 +3232,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -3244,16 +3247,16 @@
         <v>25</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J54" s="1">
         <v>1</v>
@@ -3267,7 +3270,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1">
         <v>12</v>
@@ -3282,16 +3285,16 @@
         <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J55" s="1">
         <v>1</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -3320,16 +3323,16 @@
         <v>25</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J56" s="1">
         <v>1</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -3358,16 +3361,16 @@
         <v>25</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -3381,7 +3384,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -3396,16 +3399,16 @@
         <v>25</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -3419,7 +3422,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -3434,16 +3437,16 @@
         <v>25</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -3472,16 +3475,16 @@
         <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J60" s="1">
         <v>1</v>
@@ -3495,7 +3498,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -3510,16 +3513,16 @@
         <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" s="1">
         <v>7514</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -3533,7 +3536,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -3548,16 +3551,16 @@
         <v>25</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
@@ -3586,16 +3589,16 @@
         <v>25</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1">
         <v>2</v>
@@ -3624,16 +3627,16 @@
         <v>25</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -3647,7 +3650,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3662,16 +3665,16 @@
         <v>25</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -3685,7 +3688,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -3706,10 +3709,10 @@
         <v>17</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -3744,10 +3747,10 @@
         <v>17</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -3782,10 +3785,10 @@
         <v>17</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -3799,7 +3802,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -3820,10 +3823,10 @@
         <v>17</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -3837,7 +3840,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1">
         <v>3</v>
@@ -3852,16 +3855,16 @@
         <v>25</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -3875,7 +3878,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
@@ -3890,16 +3893,16 @@
         <v>25</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -3913,7 +3916,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -3928,16 +3931,16 @@
         <v>25</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -3951,7 +3954,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1">
         <v>24</v>
@@ -3966,16 +3969,16 @@
         <v>25</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -3989,7 +3992,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="1">
         <v>5</v>
@@ -4004,16 +4007,16 @@
         <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -4027,7 +4030,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -4042,16 +4045,16 @@
         <v>25</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J75" s="1">
         <v>1</v>
@@ -4065,7 +4068,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -4080,16 +4083,16 @@
         <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -4103,7 +4106,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
@@ -4118,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -4141,7 +4144,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -4156,16 +4159,16 @@
         <v>25</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -4179,7 +4182,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -4194,16 +4197,16 @@
         <v>25</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -4217,7 +4220,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -4232,16 +4235,16 @@
         <v>25</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -4255,7 +4258,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -4270,16 +4273,16 @@
         <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -4293,7 +4296,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1">
         <v>3</v>
@@ -4308,16 +4311,16 @@
         <v>25</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -4346,16 +4349,16 @@
         <v>25</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -4369,7 +4372,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
@@ -4384,16 +4387,16 @@
         <v>25</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -4407,7 +4410,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
@@ -4422,16 +4425,16 @@
         <v>25</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J85" s="1">
         <v>1</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1">
         <v>18</v>
@@ -4460,16 +4463,16 @@
         <v>25</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J86" s="1">
         <v>1</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1">
         <v>10</v>
@@ -4498,16 +4501,16 @@
         <v>25</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -4536,16 +4539,16 @@
         <v>25</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -4559,7 +4562,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -4574,16 +4577,16 @@
         <v>25</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -4597,7 +4600,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
@@ -4612,16 +4615,16 @@
         <v>25</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -4635,7 +4638,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" s="1">
         <v>24</v>
@@ -4650,16 +4653,16 @@
         <v>25</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J91" s="1">
         <v>1</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4688,16 +4691,16 @@
         <v>25</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -4711,7 +4714,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
@@ -4726,16 +4729,16 @@
         <v>25</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J93" s="1">
         <v>1</v>
@@ -4749,7 +4752,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -4764,16 +4767,16 @@
         <v>25</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -4787,7 +4790,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
@@ -4802,16 +4805,16 @@
         <v>25</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
@@ -4840,16 +4843,16 @@
         <v>25</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -4878,16 +4881,16 @@
         <v>50</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -4916,16 +4919,16 @@
         <v>50</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -4939,7 +4942,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" s="1">
         <v>1</v>
@@ -4954,16 +4957,16 @@
         <v>50</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -4977,7 +4980,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -4992,16 +4995,16 @@
         <v>25</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -5015,7 +5018,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -5030,16 +5033,16 @@
         <v>25</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -5068,16 +5071,16 @@
         <v>25</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -5091,7 +5094,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -5106,16 +5109,16 @@
         <v>25</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -5129,7 +5132,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104" s="1">
         <v>4</v>
@@ -5144,16 +5147,16 @@
         <v>25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -5182,16 +5185,16 @@
         <v>25</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
@@ -5220,16 +5223,16 @@
         <v>25</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H106" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -5243,7 +5246,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -5258,16 +5261,16 @@
         <v>25</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="J107" s="1">
         <v>1</v>
@@ -5281,7 +5284,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B108" s="1">
         <v>1</v>
@@ -5296,16 +5299,16 @@
         <v>25</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J108" s="1">
         <v>1</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -5334,16 +5337,16 @@
         <v>25</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J109" s="1">
         <v>1</v>
@@ -5357,7 +5360,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
@@ -5372,16 +5375,16 @@
         <v>25</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J110" s="1">
         <v>1</v>
@@ -5395,7 +5398,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -5410,16 +5413,16 @@
         <v>25</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J111" s="1">
         <v>1</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
@@ -5448,16 +5451,16 @@
         <v>25</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J112" s="1">
         <v>1</v>
@@ -5471,7 +5474,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -5486,16 +5489,16 @@
         <v>25</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J113" s="1">
         <v>1</v>
@@ -5509,7 +5512,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
@@ -5524,16 +5527,16 @@
         <v>25</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J114" s="1">
         <v>1</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B115" s="1">
         <v>1</v>
@@ -5562,16 +5565,16 @@
         <v>25</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H115" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="J115" s="1">
         <v>1</v>
@@ -5585,7 +5588,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B116" s="1">
         <v>9</v>
@@ -5600,16 +5603,16 @@
         <v>25</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J116" s="1">
         <v>1</v>
@@ -5623,7 +5626,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" s="1">
         <v>1</v>
@@ -5638,16 +5641,16 @@
         <v>25</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J117" s="1">
         <v>1</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -5676,16 +5679,16 @@
         <v>25</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H118" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="J118" s="1">
         <v>1</v>
@@ -5699,7 +5702,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
@@ -5714,16 +5717,16 @@
         <v>25</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J119" s="1">
         <v>1</v>
@@ -5737,7 +5740,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
@@ -5752,16 +5755,16 @@
         <v>25</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J120" s="1">
         <v>1</v>
@@ -5775,7 +5778,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -5790,16 +5793,16 @@
         <v>25</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J121" s="1">
         <v>1</v>
@@ -5813,7 +5816,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B122" s="1">
         <v>4</v>
@@ -5828,16 +5831,16 @@
         <v>25</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J122" s="1">
         <v>1</v>
@@ -5851,7 +5854,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -5866,16 +5869,16 @@
         <v>25</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J123" s="1">
         <v>1</v>
@@ -5889,7 +5892,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B124" s="1">
         <v>26</v>
@@ -5904,16 +5907,16 @@
         <v>25</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J124" s="1">
         <v>1</v>
@@ -5927,7 +5930,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -5942,16 +5945,16 @@
         <v>25</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J125" s="1">
         <v>1</v>
@@ -5965,7 +5968,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B126" s="1">
         <v>1</v>
@@ -5980,16 +5983,16 @@
         <v>25</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J126" s="1">
         <v>1</v>
@@ -6003,7 +6006,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B127" s="1">
         <v>1</v>
@@ -6018,16 +6021,16 @@
         <v>25</v>
       </c>
       <c r="F127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J127" s="1">
         <v>1</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B128" s="1">
         <v>1</v>
@@ -6056,16 +6059,16 @@
         <v>25</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J128" s="1">
         <v>1</v>
@@ -6079,7 +6082,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B129" s="1">
         <v>1</v>
@@ -6094,16 +6097,16 @@
         <v>25</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J129" s="1">
         <v>1</v>
@@ -6117,7 +6120,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -6132,16 +6135,16 @@
         <v>25</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J130" s="1">
         <v>1</v>
@@ -6155,7 +6158,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -6170,16 +6173,16 @@
         <v>25</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J131" s="1">
         <v>1</v>
@@ -6193,7 +6196,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -6208,16 +6211,16 @@
         <v>25</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H132" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="J132" s="1">
         <v>1</v>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -6246,16 +6249,16 @@
         <v>25</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J133" s="1">
         <v>1</v>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -6284,16 +6287,16 @@
         <v>25</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J134" s="1">
         <v>1</v>
@@ -6307,7 +6310,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" s="1">
         <v>1</v>
@@ -6322,16 +6325,16 @@
         <v>25</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H135" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="J135" s="1">
         <v>1</v>
@@ -6345,7 +6348,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -6360,16 +6363,16 @@
         <v>25</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -6383,7 +6386,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
@@ -6398,16 +6401,16 @@
         <v>25</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="J137" s="1">
         <v>1</v>
@@ -6421,7 +6424,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -6436,16 +6439,16 @@
         <v>25</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J138" s="1">
         <v>1</v>
@@ -6459,7 +6462,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
@@ -6474,16 +6477,16 @@
         <v>25</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H139" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="J139" s="1">
         <v>1</v>
@@ -6497,7 +6500,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B140" s="1">
         <v>1</v>
@@ -6512,16 +6515,16 @@
         <v>25</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H140" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I140" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -6535,7 +6538,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B141" s="1">
         <v>1</v>
@@ -6550,16 +6553,16 @@
         <v>25</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J141" s="1">
         <v>1</v>
@@ -6573,7 +6576,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B142" s="1">
         <v>1</v>
@@ -6588,16 +6591,16 @@
         <v>25</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J142" s="1">
         <v>1</v>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B143" s="1">
         <v>1</v>
@@ -6626,16 +6629,16 @@
         <v>25</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J143" s="1">
         <v>1</v>
@@ -6649,7 +6652,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B144" s="1">
         <v>1</v>
@@ -6664,16 +6667,16 @@
         <v>25</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J144" s="1">
         <v>1</v>
@@ -6687,7 +6690,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B145" s="1">
         <v>1</v>
@@ -6702,16 +6705,16 @@
         <v>25</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J145" s="1">
         <v>1</v>
@@ -6725,7 +6728,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
@@ -6740,16 +6743,16 @@
         <v>25</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J146" s="1">
         <v>1</v>
@@ -6763,7 +6766,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B147" s="1">
         <v>1</v>
@@ -6778,16 +6781,16 @@
         <v>25</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J147" s="1">
         <v>1</v>
@@ -6801,7 +6804,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B148" s="1">
         <v>5</v>
@@ -6816,16 +6819,16 @@
         <v>25</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J148" s="1">
         <v>1</v>
@@ -6839,7 +6842,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B149" s="1">
         <v>1</v>
@@ -6854,16 +6857,16 @@
         <v>25</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
@@ -6877,7 +6880,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
@@ -6892,16 +6895,16 @@
         <v>25</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J150" s="1">
         <v>1</v>
@@ -6915,7 +6918,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B151" s="1">
         <v>34</v>
@@ -6927,7 +6930,7 @@
         <v>7</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J151" s="1">
         <v>1</v>
@@ -6941,7 +6944,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B152" s="1">
         <v>19</v>
@@ -6953,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J152" s="1">
         <v>1</v>
@@ -6967,7 +6970,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B153" s="1">
         <v>5</v>
@@ -6976,10 +6979,10 @@
         <v>2100</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J153" s="1">
         <v>1</v>
@@ -6993,7 +6996,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B154" s="1">
         <v>4</v>
@@ -7002,10 +7005,10 @@
         <v>2400</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J154" s="1">
         <v>1</v>
@@ -7019,7 +7022,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B155" s="1">
         <v>230</v>
@@ -7031,7 +7034,7 @@
         <v>7</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J155" s="1">
         <v>1</v>
@@ -7057,7 +7060,7 @@
         <v>7</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J156" s="1">
         <v>1</v>
@@ -7071,7 +7074,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B157" s="1">
         <v>33</v>
@@ -7083,7 +7086,7 @@
         <v>6</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J157" s="1">
         <v>1</v>
@@ -7097,7 +7100,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B158" s="1">
         <v>5</v>
@@ -7109,7 +7112,7 @@
         <v>6</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J158" s="1">
         <v>1</v>
@@ -7123,7 +7126,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" s="1">
         <v>33</v>
@@ -7135,7 +7138,7 @@
         <v>6</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J159" s="1">
         <v>1</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" s="1">
         <v>70</v>
@@ -7161,7 +7164,7 @@
         <v>6</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J160" s="1">
         <v>1</v>
@@ -7175,7 +7178,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161" s="1">
         <v>70</v>
@@ -7187,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J161" s="1">
         <v>1</v>
@@ -7201,7 +7204,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" s="1">
         <v>1</v>
@@ -7210,10 +7213,10 @@
         <v>1915</v>
       </c>
       <c r="F162" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="J162" s="1">
         <v>1</v>
@@ -7227,7 +7230,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B163" s="1">
         <v>1</v>
@@ -7236,10 +7239,10 @@
         <v>2100</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J163" s="1">
         <v>1</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" s="1">
         <v>3</v>
@@ -7265,7 +7268,7 @@
         <v>7</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J164" s="1">
         <v>1</v>
@@ -7279,7 +7282,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" s="1">
         <v>15</v>
@@ -7291,7 +7294,7 @@
         <v>7</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J165" s="1">
         <v>1</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" s="1">
         <v>6</v>
@@ -7317,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J166" s="1">
         <v>1</v>
@@ -7331,7 +7334,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" s="1">
         <v>33</v>
@@ -7343,7 +7346,7 @@
         <v>7</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J167" s="1">
         <v>1</v>
@@ -7357,7 +7360,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" s="1">
         <v>1</v>
@@ -7366,10 +7369,10 @@
         <v>2000</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J168" s="1">
         <v>1</v>
@@ -7383,7 +7386,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B169" s="1">
         <v>3</v>
@@ -7392,10 +7395,10 @@
         <v>2400</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H169" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J169" s="1">
         <v>1</v>
@@ -7409,7 +7412,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B170" s="1">
         <v>13</v>
@@ -7421,7 +7424,7 @@
         <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J170" s="1">
         <v>1</v>
@@ -7435,7 +7438,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B171" s="1">
         <v>13</v>
@@ -7447,7 +7450,7 @@
         <v>6</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J171" s="1">
         <v>1</v>
@@ -7461,7 +7464,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B172" s="1">
         <v>3</v>
@@ -7470,10 +7473,10 @@
         <v>2100</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J172" s="1">
         <v>1</v>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B173" s="1">
         <v>2</v>
@@ -7496,10 +7499,10 @@
         <v>2400</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J173" s="1">
         <v>1</v>
@@ -7513,7 +7516,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B174" s="1">
         <v>8</v>
@@ -7525,7 +7528,7 @@
         <v>6</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J174" s="1">
         <v>1</v>
@@ -7539,7 +7542,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B175" s="1">
         <v>13</v>
@@ -7551,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J175" s="1">
         <v>1</v>
@@ -7565,7 +7568,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B176" s="1">
         <v>8</v>
@@ -7577,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J176" s="1">
         <v>1</v>
@@ -7591,7 +7594,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" s="1">
         <v>3</v>
@@ -7603,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J177" s="1">
         <v>1</v>
@@ -7617,7 +7620,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B178" s="1">
         <v>10</v>
@@ -7629,7 +7632,7 @@
         <v>7</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J178" s="1">
         <v>1</v>
@@ -7643,7 +7646,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B179" s="1">
         <v>1</v>
@@ -7652,10 +7655,10 @@
         <v>1905</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J179" s="1">
         <v>1</v>
@@ -7669,7 +7672,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
@@ -7678,10 +7681,10 @@
         <v>1925</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J180" s="1">
         <v>1</v>
@@ -7695,7 +7698,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B181" s="1">
         <v>8</v>
@@ -7707,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J181" s="1">
         <v>1</v>
@@ -7721,7 +7724,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B182" s="1">
         <v>8</v>
@@ -7733,7 +7736,7 @@
         <v>7</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -7747,7 +7750,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B183" s="1">
         <v>22</v>
@@ -7759,7 +7762,7 @@
         <v>7</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J183" s="1">
         <v>1</v>
@@ -7773,7 +7776,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B184" s="1">
         <v>34</v>
@@ -7794,10 +7797,10 @@
         <v>7</v>
       </c>
       <c r="H184" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I184" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="J184" s="1">
         <v>1</v>
@@ -7812,7 +7815,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B185" s="1">
         <v>64</v>
@@ -7833,10 +7836,10 @@
         <v>7</v>
       </c>
       <c r="H185" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I185" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="J185" s="1">
         <v>1</v>
@@ -7851,7 +7854,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B186" s="1">
         <v>32</v>
@@ -7872,10 +7875,10 @@
         <v>7</v>
       </c>
       <c r="H186" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I186" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="J186" s="1">
         <v>1</v>
@@ -7890,7 +7893,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B187" s="1">
         <v>18</v>
@@ -7911,10 +7914,10 @@
         <v>7</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J187" s="1">
         <v>1</v>
@@ -7929,7 +7932,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B188" s="1">
         <v>18</v>
@@ -7950,10 +7953,10 @@
         <v>7</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J188" s="1">
         <v>1</v>
@@ -7968,7 +7971,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B189" s="1">
         <v>18</v>
@@ -7989,10 +7992,10 @@
         <v>7</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J189" s="1">
         <v>1</v>
@@ -8007,7 +8010,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -8028,10 +8031,10 @@
         <v>7</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J190" s="1">
         <v>1</v>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B191" s="1">
         <v>16</v>
@@ -8067,10 +8070,10 @@
         <v>7</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J191" s="1">
         <v>1</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
@@ -8106,10 +8109,10 @@
         <v>7</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J192" s="1">
         <v>1</v>
@@ -8124,7 +8127,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B193" s="1">
         <v>7</v>
@@ -8145,10 +8148,10 @@
         <v>7</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J193" s="1">
         <v>1</v>
@@ -8163,7 +8166,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B194" s="1">
         <v>2</v>
@@ -8184,10 +8187,10 @@
         <v>7</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J194" s="1">
         <v>1</v>
@@ -8202,7 +8205,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B195" s="1">
         <v>17</v>
@@ -8223,10 +8226,10 @@
         <v>7</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J195" s="1">
         <v>1</v>
@@ -8241,7 +8244,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B196" s="1">
         <v>1</v>
@@ -8262,10 +8265,10 @@
         <v>7</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J196" s="1">
         <v>1</v>
@@ -8280,7 +8283,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -8301,10 +8304,10 @@
         <v>7</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J197" s="1">
         <v>1</v>
@@ -8319,7 +8322,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B198" s="1">
         <v>1</v>
@@ -8340,10 +8343,10 @@
         <v>7</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J198" s="1">
         <v>1</v>
@@ -8358,7 +8361,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B199" s="1">
         <v>1</v>
@@ -8379,10 +8382,10 @@
         <v>7</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J199" s="1">
         <v>1</v>
@@ -8397,7 +8400,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B200" s="1">
         <v>17</v>
@@ -8418,10 +8421,10 @@
         <v>7</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J200" s="1">
         <v>1</v>
@@ -8436,7 +8439,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B201" s="1">
         <v>12</v>
@@ -8457,10 +8460,10 @@
         <v>7</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J201" s="1">
         <v>1</v>
@@ -8475,7 +8478,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B202" s="1">
         <v>16</v>
@@ -8496,10 +8499,10 @@
         <v>7</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J202" s="1">
         <v>1</v>
@@ -8514,7 +8517,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B203" s="1">
         <v>19</v>
@@ -8535,10 +8538,10 @@
         <v>7</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="J203" s="1">
         <v>1</v>
@@ -8553,7 +8556,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B204" s="1">
         <v>5</v>
@@ -8574,10 +8577,10 @@
         <v>7</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J204" s="1">
         <v>1</v>
@@ -8592,7 +8595,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B205" s="1">
         <v>5</v>
@@ -8613,10 +8616,10 @@
         <v>7</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J205" s="1">
         <v>1</v>
@@ -8628,6 +8631,16 @@
         <v>2</v>
       </c>
       <c r="P205" s="1"/>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B213" s="1">
+        <f>SUM(B9:B150)</f>
+        <v>390</v>
+      </c>
+      <c r="C213">
+        <f>SUM(B184:B205)</f>
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
